--- a/dtpu_configurations/only_integer32/80mhz/mxu_4x4/utilization.xlsx
+++ b/dtpu_configurations/only_integer32/80mhz/mxu_4x4/utilization.xlsx
@@ -38,7 +38,7 @@
     <t>BUFG</t>
   </si>
   <si>
-    <t>impl_1, impl_1_place_report_utilization_0</t>
+    <t>retiming, retiming_place_report_utilization_0</t>
   </si>
 </sst>
 </file>
@@ -113,12 +113,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.0" customWidth="true"/>
+    <col min="1" max="1" width="48.75" customWidth="true"/>
     <col min="2" max="2" width="11.71875" customWidth="true"/>
     <col min="3" max="3" width="10.46875" customWidth="true"/>
     <col min="4" max="4" width="11.71875" customWidth="true"/>
     <col min="5" max="5" width="11.71875" customWidth="true"/>
-    <col min="6" max="6" width="10.46875" customWidth="true"/>
+    <col min="6" max="6" width="11.71875" customWidth="true"/>
     <col min="7" max="7" width="10.46875" customWidth="true"/>
     <col min="8" max="8" width="10.46875" customWidth="true"/>
   </cols>
@@ -154,19 +154,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>17.449247360229492</v>
+        <v>19.894737243652344</v>
       </c>
       <c r="C2" t="n" s="4">
         <v>5.344827651977539</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>11.668232917785645</v>
+        <v>14.27161693572998</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>46.42856979370117</v>
+        <v>57.85714340209961</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>5.454545497894287</v>
+        <v>21.81818199157715</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>8.0</v>
